--- a/nursing_knowledges/scripts/diagnosis_intervention_data.xlsx
+++ b/nursing_knowledges/scripts/diagnosis_intervention_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunchae\Desktop\널스피디아 - 설계\질병-진단 데이터 받은 파일_2021_11_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E175D49F-0876-4D9D-8741-6804831165BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B89CBB-9237-4960-A626-FA2AAAF3887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,15 +258,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영양 불균형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가스교환 장애</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>심박출량 감소의 위험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양불균형 : 영양부족</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,8 +609,8 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
     </row>
     <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="7" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
